--- a/public/list info.xlsx
+++ b/public/list info.xlsx
@@ -1,17 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24334"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\V Manish\Desktop\BIT-ISE-Time-Table-Generator\public\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B97AF46-02CA-4E8D-94B1-C28FB0882D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" tabRatio="117" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="give me the text from this imag" sheetId="1" r:id="rId4"/>
+    <sheet name="give me the text from this imag" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="149">
   <si>
     <t>NAME</t>
   </si>
@@ -118,9 +132,6 @@
     <t>B</t>
   </si>
   <si>
-    <t>B1 BDA Lab</t>
-  </si>
-  <si>
     <t>Pavithra N (PN)</t>
   </si>
   <si>
@@ -133,15 +144,9 @@
     <t>8hrs</t>
   </si>
   <si>
-    <t>B3 BDA Lab</t>
-  </si>
-  <si>
     <t>4hrs</t>
   </si>
   <si>
-    <t>A2 PC Lab</t>
-  </si>
-  <si>
     <t>Dr. Asha T (AT)</t>
   </si>
   <si>
@@ -151,54 +156,27 @@
     <t>3hrs</t>
   </si>
   <si>
-    <t>A3 PC Lab</t>
-  </si>
-  <si>
-    <t>A2 BDA Lab</t>
-  </si>
-  <si>
     <t>Big Data Analytics</t>
   </si>
   <si>
-    <t>A1 BDA Lab</t>
-  </si>
-  <si>
     <t>Parallel Computing</t>
   </si>
   <si>
-    <t>B3 PC Lab</t>
-  </si>
-  <si>
     <t>Padmanabha J (PNJ)</t>
   </si>
   <si>
-    <t>B1 PC Lab</t>
-  </si>
-  <si>
     <t>Prameela R (PR)</t>
   </si>
   <si>
-    <t>A1 PC Lab</t>
-  </si>
-  <si>
     <t>Aishwarya A S (AS)</t>
   </si>
   <si>
     <t>1hr</t>
   </si>
   <si>
-    <t>B2 PC Lab</t>
-  </si>
-  <si>
-    <t>B2 BDA Lab</t>
-  </si>
-  <si>
     <t>2hrs</t>
   </si>
   <si>
-    <t>A3 BDA Lab</t>
-  </si>
-  <si>
     <t>5th sem</t>
   </si>
   <si>
@@ -458,40 +436,79 @@
   </si>
   <si>
     <t>OOPS Lab (C1+C2+C3 BATCHES)</t>
+  </si>
+  <si>
+    <t>7B1 BDA Lab</t>
+  </si>
+  <si>
+    <t>7B3 BDA Lab</t>
+  </si>
+  <si>
+    <t>7A2 PC Lab</t>
+  </si>
+  <si>
+    <t>7A3 PC Lab</t>
+  </si>
+  <si>
+    <t>7A2 BDA Lab</t>
+  </si>
+  <si>
+    <t>7A1 BDA Lab</t>
+  </si>
+  <si>
+    <t>7B3 PC Lab</t>
+  </si>
+  <si>
+    <t>7B1 PC Lab</t>
+  </si>
+  <si>
+    <t>7A1 PC Lab</t>
+  </si>
+  <si>
+    <t>7B2 PC Lab</t>
+  </si>
+  <si>
+    <t>7B2 BDA Lab</t>
+  </si>
+  <si>
+    <t>7A3 BDA Lab</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Roboto"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
-      <sz val="13.0"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -502,7 +519,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -542,7 +559,13 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF356854"/>
@@ -556,6 +579,7 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -570,6 +594,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -584,6 +609,7 @@
       <bottom style="thin">
         <color rgb="FFF6F8F9"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -598,122 +624,114 @@
       <bottom style="thin">
         <color rgb="FF284E3F"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="28">
     <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-      <border/>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF356854"/>
           <bgColor rgb="FF356854"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF6F8F9"/>
-          <bgColor rgb="FFF6F8F9"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
     <dxf>
       <border>
@@ -731,146 +749,374 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FF356854"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF356854"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF356854"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF356854"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF6F8F9"/>
+          <bgColor rgb="FFF6F8F9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF356854"/>
+          <bgColor rgb="FF356854"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="7">
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="24"/>
+      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 2">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 2" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="20"/>
+      <tableStyleElement type="headerRow" dxfId="23"/>
+      <tableStyleElement type="firstRowStripe" dxfId="22"/>
+      <tableStyleElement type="secondRowStripe" dxfId="21"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 3">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 3" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 4">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 4" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="firstRowStripe" dxfId="14"/>
+      <tableStyleElement type="secondRowStripe" dxfId="13"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 5">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 5" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="8"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 6">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 6" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF05000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="7"/>
+      <tableStyleElement type="firstRowStripe" dxfId="6"/>
+      <tableStyleElement type="secondRowStripe" dxfId="5"/>
     </tableStyle>
-    <tableStyle count="4" pivot="0" name="give me the text from this imag-style 7">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
-      <tableStyleElement dxfId="4" size="0" type="wholeTable"/>
+    <tableStyle name="give me the text from this imag-style 7" pivot="0" count="4" xr9:uid="{00000000-0011-0000-FFFF-FFFF06000000}">
+      <tableStyleElement type="wholeTable" size="0" dxfId="0"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="firstRowStripe" dxfId="2"/>
+      <tableStyleElement type="secondRowStripe" dxfId="1"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:C20" displayName="Table1" name="Table1" id="1">
-  <tableColumns count="3">
-    <tableColumn name="NAME" id="1"/>
-    <tableColumn name="POSITION" id="2"/>
-    <tableColumn name="total hours" id="3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="G24:J36">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Lab Session"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Column 1"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 2" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G24:J36" displayName="Table2" name="Table2" id="2">
-  <tableColumns count="4">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Section" id="2"/>
-    <tableColumn name="Lab Session" id="3"/>
-    <tableColumn name="Column 1" id="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Theory" displayName="Theory" ref="A25:E33">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Subject"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Section"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Lecture Count"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="total lecture hrs"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 3" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A25:E34" displayName="Theory" name="Theory" id="3">
-  <tableColumns count="5">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Subject" id="2"/>
-    <tableColumn name="Section" id="3"/>
-    <tableColumn name="Lecture Count" id="4"/>
-    <tableColumn name="total lecture hrs" id="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table4" displayName="Table4" ref="G42:J78">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Lab Session"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Column 1"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 3" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 4" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G42:J78" displayName="Table4" name="Table4" id="4">
-  <tableColumns count="4">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Section" id="2"/>
-    <tableColumn name="Lab Session" id="3"/>
-    <tableColumn name="Column 1" id="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Table3" displayName="Table3" ref="A42:E59">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Subject(s)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Lecture Count"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Column 1"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 4" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 5" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A43:E60" displayName="Table3" name="Table3" id="5">
-  <tableColumns count="5">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Section" id="2"/>
-    <tableColumn name="Subject(s)" id="3"/>
-    <tableColumn name="Lecture Count" id="4"/>
-    <tableColumn name="Column 1" id="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="G83:J123">
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Lab Session(s)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Column 1"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 5" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 6" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="G83:J123" displayName="Table6" name="Table6" id="6">
-  <tableColumns count="4">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Section" id="2"/>
-    <tableColumn name="Lab Session(s)" id="3"/>
-    <tableColumn name="Column 1" id="4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table5" displayName="Table5" ref="A83:E98">
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Teacher"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Section"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Subject"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Lecture Count"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="Column 1"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 6" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style 7" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A84:E99" displayName="Table5" name="Table5" id="7">
-  <tableColumns count="5">
-    <tableColumn name="Teacher" id="1"/>
-    <tableColumn name="Section" id="2"/>
-    <tableColumn name="Subject" id="3"/>
-    <tableColumn name="Lecture Count" id="4"/>
-    <tableColumn name="Column 1" id="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:C20">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="NAME"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="POSITION"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="total hours"/>
   </tableColumns>
-  <tableStyleInfo name="give me the text from this imag-style 7" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="give me the text from this imag-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1060,33 +1306,36 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="19.75"/>
-    <col customWidth="1" min="2" max="2" width="27.5"/>
-    <col customWidth="1" min="3" max="3" width="25.0"/>
-    <col customWidth="1" min="4" max="4" width="16.88"/>
-    <col customWidth="1" min="6" max="6" width="17.75"/>
-    <col customWidth="1" min="7" max="7" width="18.38"/>
-    <col customWidth="1" min="8" max="8" width="13.88"/>
-    <col customWidth="1" min="9" max="9" width="20.5"/>
+    <col min="1" max="1" width="19.7265625" customWidth="1"/>
+    <col min="2" max="2" width="27.453125" customWidth="1"/>
+    <col min="3" max="3" width="41.36328125" customWidth="1"/>
+    <col min="4" max="4" width="16.90625" customWidth="1"/>
+    <col min="6" max="6" width="17.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.36328125" customWidth="1"/>
+    <col min="8" max="8" width="13.90625" customWidth="1"/>
+    <col min="9" max="9" width="66.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1097,7 +1346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1355,7 @@
       </c>
       <c r="C2" s="4"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1364,7 @@
       </c>
       <c r="C3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
@@ -1124,7 +1373,7 @@
       </c>
       <c r="C4" s="4"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1133,7 +1382,7 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1142,7 +1391,7 @@
       </c>
       <c r="C6" s="4"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -1151,7 +1400,7 @@
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>11</v>
       </c>
@@ -1160,7 +1409,7 @@
       </c>
       <c r="C8" s="4"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>12</v>
       </c>
@@ -1169,7 +1418,7 @@
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1427,7 @@
       </c>
       <c r="C10" s="4"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>15</v>
       </c>
@@ -1187,7 +1436,7 @@
       </c>
       <c r="C11" s="5"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>16</v>
       </c>
@@ -1196,7 +1445,7 @@
       </c>
       <c r="C12" s="4"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>17</v>
       </c>
@@ -1205,7 +1454,7 @@
       </c>
       <c r="C13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
@@ -1214,7 +1463,7 @@
       </c>
       <c r="C14" s="4"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
@@ -1223,7 +1472,7 @@
       </c>
       <c r="C15" s="5"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>21</v>
       </c>
@@ -1232,7 +1481,7 @@
       </c>
       <c r="C16" s="4"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1241,7 +1490,7 @@
       </c>
       <c r="C17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>23</v>
       </c>
@@ -1250,7 +1499,7 @@
       </c>
       <c r="C18" s="4"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
@@ -1259,7 +1508,7 @@
       </c>
       <c r="C19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>25</v>
       </c>
@@ -1268,12 +1517,12 @@
       </c>
       <c r="C20" s="6"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A23" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F24" s="8"/>
       <c r="G24" s="9" t="s">
         <v>27</v>
@@ -1288,7 +1537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>27</v>
       </c>
@@ -1312,25 +1561,25 @@
         <v>34</v>
       </c>
       <c r="I25" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="J25" s="12"/>
+    </row>
+    <row r="26" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J25" s="12"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="12" t="s">
+      <c r="B26" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C26" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="14">
+        <v>4</v>
+      </c>
+      <c r="E26" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="D26" s="14">
-        <v>4.0</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="F26" s="11"/>
       <c r="G26" s="12" t="s">
@@ -1340,24 +1589,24 @@
         <v>34</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>37</v>
-      </c>
       <c r="C27" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D27" s="14">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="E27" s="17"/>
       <c r="F27" s="11"/>
@@ -1365,114 +1614,116 @@
         <v>11</v>
       </c>
       <c r="H27" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I27" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="J27" s="17"/>
+    </row>
+    <row r="28" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="J27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="14">
-        <v>2.0</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F28" s="11"/>
       <c r="G28" s="12" t="s">
         <v>11</v>
       </c>
       <c r="H28" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="J28" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="12" t="s">
-        <v>44</v>
-      </c>
       <c r="C29" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D29" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E29" s="17"/>
+        <v>3</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>42</v>
+      </c>
       <c r="F29" s="11"/>
       <c r="G29" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H29" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="J29" s="17"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D30" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E30" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F30" s="11"/>
       <c r="G30" s="12" t="s">
         <v>19</v>
       </c>
       <c r="H30" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="J30" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D31" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E31" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F31" s="11"/>
       <c r="G31" s="12" t="s">
@@ -1482,25 +1733,25 @@
         <v>34</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="J31" s="17"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D32" s="14">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="12" t="s">
@@ -1510,56 +1761,41 @@
         <v>34</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>53</v>
+        <v>144</v>
       </c>
       <c r="J32" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="C33" s="13" t="s">
         <v>34</v>
       </c>
       <c r="D33" s="14">
-        <v>3.0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F33" s="11"/>
       <c r="G33" s="12" t="s">
         <v>24</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="J33" s="17"/>
     </row>
-    <row r="34">
-      <c r="A34" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D34" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>57</v>
-      </c>
+    <row r="34" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F34" s="11"/>
       <c r="G34" s="12" t="s">
         <v>24</v>
@@ -1568,13 +1804,13 @@
         <v>34</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>58</v>
+        <v>146</v>
       </c>
       <c r="J34" s="15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F35" s="11"/>
       <c r="G35" s="12" t="s">
         <v>15</v>
@@ -1583,33 +1819,49 @@
         <v>34</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>59</v>
+        <v>147</v>
       </c>
       <c r="J35" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="F36" s="11"/>
       <c r="G36" s="12" t="s">
         <v>20</v>
       </c>
       <c r="H36" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>61</v>
+        <v>148</v>
       </c>
       <c r="J36" s="15" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="G42" s="9" t="s">
         <v>27</v>
       </c>
@@ -1623,487 +1875,472 @@
         <v>30</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="9" t="s">
+    <row r="43" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="21">
+        <v>4</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="D44" s="21">
+        <v>4</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="21">
+        <v>4</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" s="21">
+        <v>4</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="21">
+        <v>4</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J47" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="D43" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J43" s="12"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="12" t="s">
+    </row>
+    <row r="48" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D48" s="21">
+        <v>3</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G48" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="D44" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I44" s="12" t="s">
+      <c r="H48" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J44" s="12"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="12" t="s">
+      <c r="J48" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D49" s="21">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J49" s="12"/>
+    </row>
+    <row r="50" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="21">
+        <v>3</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J50" s="12"/>
+    </row>
+    <row r="51" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C51" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B45" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="12" t="s">
+      <c r="D51" s="21">
+        <v>3</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G51" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E45" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J45" s="12"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B46" s="20" t="s">
+      <c r="H51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D46" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E46" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J46" s="12"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="12" t="s">
+      <c r="D52" s="21">
+        <v>3</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D53" s="21">
+        <v>3</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D54" s="21">
+        <v>3</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="21">
+        <v>3</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I55" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A56" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="21">
+        <v>3</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I56" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D57" s="21">
+        <v>3</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I57" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B47" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C47" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="D47" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E47" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H47" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="B48" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D48" s="21">
-        <v>4.0</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J48" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="B49" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D49" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J49" s="12"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="12"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="12" t="s">
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A58" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="B58" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D58" s="21">
+        <v>1</v>
+      </c>
+      <c r="E58" s="12"/>
+      <c r="G58" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="B51" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D51" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G51" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H51" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I51" s="12" t="s">
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A59" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="J51" s="12"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D52" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I52" s="12" t="s">
+      <c r="B59" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="J52" s="12"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="B53" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D53" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G53" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H53" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I53" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J53" s="16" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D54" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J54" s="12"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G55" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H55" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I55" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J55" s="12"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="D56" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E56" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G56" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="H56" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I56" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="J56" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D57" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E57" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G57" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I57" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="J57" s="12"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="B58" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D58" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E58" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G58" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H58" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J58" s="12"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>98</v>
-      </c>
       <c r="D59" s="21">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="12"/>
       <c r="G59" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H59" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I59" s="12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="J59" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C60" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D60" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="E60" s="12"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G60" s="12" t="s">
         <v>10</v>
       </c>
@@ -2111,248 +2348,264 @@
         <v>34</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J60" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G61" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="J61" s="12"/>
+    </row>
+    <row r="62" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G62" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J62" s="12"/>
+    </row>
+    <row r="63" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G63" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I63" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J63" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G64" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I64" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J64" s="12"/>
+    </row>
+    <row r="65" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G65" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I65" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="J65" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G66" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I66" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G67" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I67" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J67" s="12"/>
+    </row>
+    <row r="68" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G68" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G69" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J69" s="12"/>
+    </row>
+    <row r="70" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G70" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G71" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="J71" s="12"/>
+    </row>
+    <row r="72" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G72" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I72" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="J72" s="12"/>
+    </row>
+    <row r="73" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G73" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="J73" s="12"/>
+    </row>
+    <row r="74" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G74" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J74" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="J61" s="12"/>
-    </row>
-    <row r="62">
-      <c r="G62" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H62" s="12" t="s">
+    </row>
+    <row r="75" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G75" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I75" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="J75" s="12"/>
+    </row>
+    <row r="76" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G76" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I76" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G77" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I77" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="G78" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="J78" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="I62" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="J62" s="12"/>
-    </row>
-    <row r="63">
-      <c r="G63" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="H63" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I63" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J63" s="16" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="G64" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H64" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I64" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="J64" s="12"/>
-    </row>
-    <row r="65">
-      <c r="G65" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H65" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I65" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="J65" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="G66" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="H66" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I66" s="12" t="s">
+    </row>
+    <row r="80" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="J66" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="G67" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H67" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I67" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="J67" s="12"/>
-    </row>
-    <row r="68">
-      <c r="G68" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="H68" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I68" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="J68" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="G69" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H69" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I69" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J69" s="12"/>
-    </row>
-    <row r="70">
-      <c r="G70" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I70" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J70" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="G71" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I71" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="J71" s="12"/>
-    </row>
-    <row r="72">
-      <c r="G72" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H72" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I72" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="J72" s="12"/>
-    </row>
-    <row r="73">
-      <c r="G73" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I73" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="J73" s="12"/>
-    </row>
-    <row r="74">
-      <c r="G74" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="H74" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I74" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="J74" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="G75" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I75" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76">
-      <c r="G76" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H76" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I76" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J76" s="12"/>
-    </row>
-    <row r="77">
-      <c r="G77" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H77" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="J77" s="12"/>
-    </row>
-    <row r="78">
-      <c r="G78" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I78" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="J78" s="16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="22" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="83">
+    </row>
+    <row r="81" spans="1:10" ht="12.5" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C83" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E83" s="9" t="s">
+        <v>30</v>
+      </c>
       <c r="G83" s="9" t="s">
         <v>27</v>
       </c>
@@ -2360,311 +2613,309 @@
         <v>28</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B84" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C84" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>30</v>
+    <row r="84" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
+      <c r="A84" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D84" s="21">
+        <v>3</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>42</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="J84" s="12"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B85" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D85" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G85" s="12"/>
       <c r="H85" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B86" s="20" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="D86" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E86" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="J86" s="12"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="B87" s="20" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D87" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E87" s="12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="G87" s="12"/>
       <c r="H87" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B88" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D88" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E88" s="12"/>
       <c r="G88" s="12" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="J88" s="12"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B89" s="20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D89" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E89" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="G89" s="12"/>
       <c r="H89" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="J89" s="12"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B90" s="20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D90" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E90" s="12" t="s">
-        <v>93</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B91" s="20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="D91" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E91" s="12"/>
+        <v>3</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>81</v>
+      </c>
       <c r="G91" s="12" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="J91" s="12"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B92" s="20" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D92" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>93</v>
+        <v>42</v>
       </c>
       <c r="G92" s="12"/>
       <c r="H92" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="J92" s="12"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="B93" s="20" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="D93" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="E93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B94" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D94" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E94" s="12"/>
       <c r="G94" s="12" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="J94" s="12"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A95" s="12" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B95" s="20" t="s">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D95" s="21">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="E95" s="12"/>
       <c r="G95" s="12"/>
@@ -2672,79 +2923,81 @@
         <v>34</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="J95" s="12"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="B96" s="20" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D96" s="21">
-        <v>3.0</v>
-      </c>
-      <c r="E96" s="12"/>
+        <v>2</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="G96" s="12"/>
       <c r="H96" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="B97" s="20" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D97" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E97" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G97" s="12" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="H97" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I97" s="12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="J97" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="B98" s="20" t="s">
-        <v>70</v>
+        <v>34</v>
       </c>
       <c r="C98" s="12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D98" s="21">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="E98" s="12" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="G98" s="12" t="s">
         <v>5</v>
@@ -2753,110 +3006,95 @@
         <v>34</v>
       </c>
       <c r="I98" s="12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="J98" s="12"/>
     </row>
-    <row r="99">
-      <c r="A99" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="B99" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="D99" s="21">
-        <v>2.0</v>
-      </c>
-      <c r="E99" s="12" t="s">
-        <v>60</v>
-      </c>
+    <row r="99" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G99" s="12"/>
       <c r="H99" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I99" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J99" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G100" s="12" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="H100" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I100" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J100" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G101" s="12" t="s">
         <v>8</v>
       </c>
       <c r="H101" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I101" s="12" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="J101" s="12"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G102" s="12"/>
       <c r="H102" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I102" s="12" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="J102" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G103" s="12" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I103" s="12" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J103" s="12"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I104" s="12" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="J104" s="12"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I105" s="12" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="J105" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G106" s="12" t="s">
         <v>11</v>
       </c>
@@ -2864,226 +3102,226 @@
         <v>34</v>
       </c>
       <c r="I106" s="12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="J106" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G107" s="12" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="H107" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I107" s="12" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="J107" s="12"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I108" s="12" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="J108" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G109" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H109" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I109" s="12" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="J109" s="12"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G110" s="12"/>
       <c r="H110" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I110" s="12" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="J110" s="12"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G111" s="12"/>
       <c r="H111" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I111" s="12" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="J111" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G112" s="12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="H112" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I112" s="12" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="J112" s="12"/>
     </row>
-    <row r="113">
+    <row r="113" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G113" s="12"/>
       <c r="H113" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I113" s="12" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="J113" s="12"/>
     </row>
-    <row r="114">
+    <row r="114" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I114" s="12" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="J114" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="115" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G115" s="12" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="H115" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I115" s="12" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="J115" s="12"/>
     </row>
-    <row r="116">
+    <row r="116" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I116" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="J116" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G117" s="12" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="H117" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I117" s="12" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J117" s="12"/>
     </row>
-    <row r="118">
+    <row r="118" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G118" s="12"/>
       <c r="H118" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I118" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J118" s="12"/>
     </row>
-    <row r="119">
+    <row r="119" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G119" s="12"/>
       <c r="H119" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I119" s="12" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="J119" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="120" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G120" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I120" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="H120" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="I120" s="12" t="s">
-        <v>107</v>
-      </c>
       <c r="J120" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G121" s="12" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="H121" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I121" s="12" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="J121" s="12"/>
     </row>
-    <row r="122">
+    <row r="122" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G122" s="12"/>
       <c r="H122" s="12" t="s">
         <v>34</v>
       </c>
       <c r="I122" s="12" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="J122" s="12"/>
     </row>
-    <row r="123">
+    <row r="123" spans="7:10" ht="12.5" x14ac:dyDescent="0.25">
       <c r="G123" s="12"/>
       <c r="H123" s="12" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="I123" s="12" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="J123" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D26:D34 D44:D60 D85:D99">
+  <dataValidations count="2">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="D43:D59 D84:D98 D26:D33" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>AND(ISNUMBER(D26),(NOT(OR(NOT(ISERROR(DATEVALUE(D26))), AND(ISNUMBER(D26), LEFT(CELL("format", D26))="D")))))</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showDropDown="1" sqref="C26:C34 B44:B60 B85:B99"/>
+    <dataValidation allowBlank="1" showDropDown="1" sqref="B43:B59 B84:B98 C26:C33" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
   </dataValidations>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="7">
-    <tablePart r:id="rId9"/>
-    <tablePart r:id="rId10"/>
-    <tablePart r:id="rId11"/>
-    <tablePart r:id="rId12"/>
-    <tablePart r:id="rId13"/>
-    <tablePart r:id="rId14"/>
-    <tablePart r:id="rId15"/>
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>